--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl13-Cxcr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl13-Cxcr5.xlsx
@@ -88,7 +88,7 @@
     <t>Cxcr5</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
+    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -528,7 +528,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,40 +543,40 @@
         <v>10.58654</v>
       </c>
       <c r="I2">
-        <v>0.9732133606755627</v>
+        <v>0.8781048434890718</v>
       </c>
       <c r="J2">
-        <v>0.9732133606755629</v>
+        <v>0.8781048434890719</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.29479</v>
+        <v>0.5604183333333334</v>
       </c>
       <c r="N2">
-        <v>0.88437</v>
+        <v>1.681255</v>
       </c>
       <c r="O2">
-        <v>0.4061762563461451</v>
+        <v>0.3661514391314925</v>
       </c>
       <c r="P2">
-        <v>0.4061762563461451</v>
+        <v>0.3661514391314925</v>
       </c>
       <c r="Q2">
-        <v>1.040268708866667</v>
+        <v>1.977630367522222</v>
       </c>
       <c r="R2">
-        <v>9.362418379799999</v>
+        <v>17.7986733077</v>
       </c>
       <c r="S2">
-        <v>0.3952961594652508</v>
+        <v>0.3215193521518576</v>
       </c>
       <c r="T2">
-        <v>0.3952961594652508</v>
+        <v>0.3215193521518576</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,40 +605,40 @@
         <v>10.58654</v>
       </c>
       <c r="I3">
-        <v>0.9732133606755627</v>
+        <v>0.8781048434890718</v>
       </c>
       <c r="J3">
-        <v>0.9732133606755629</v>
+        <v>0.8781048434890719</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.07539966666666666</v>
+        <v>0.29479</v>
       </c>
       <c r="N3">
-        <v>0.226199</v>
+        <v>0.88437</v>
       </c>
       <c r="O3">
-        <v>0.1038893935900604</v>
+        <v>0.1926021622090153</v>
       </c>
       <c r="P3">
-        <v>0.1038893935900604</v>
+        <v>0.1926021622090153</v>
       </c>
       <c r="Q3">
-        <v>0.2660738623844444</v>
+        <v>1.040268708866667</v>
       </c>
       <c r="R3">
-        <v>2.39466476146</v>
+        <v>9.362418379799999</v>
       </c>
       <c r="S3">
-        <v>0.1011065458743289</v>
+        <v>0.1691248915022042</v>
       </c>
       <c r="T3">
-        <v>0.1011065458743289</v>
+        <v>0.1691248915022042</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,40 +667,40 @@
         <v>10.58654</v>
       </c>
       <c r="I4">
-        <v>0.9732133606755627</v>
+        <v>0.8781048434890718</v>
       </c>
       <c r="J4">
-        <v>0.9732133606755629</v>
+        <v>0.8781048434890719</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.225438</v>
+        <v>0.439932</v>
       </c>
       <c r="N4">
-        <v>0.6763140000000001</v>
+        <v>1.319796</v>
       </c>
       <c r="O4">
-        <v>0.3106196372948956</v>
+        <v>0.2874312372364616</v>
       </c>
       <c r="P4">
-        <v>0.3106196372948956</v>
+        <v>0.2874312372364616</v>
       </c>
       <c r="Q4">
-        <v>0.7955361348400001</v>
+        <v>1.55245257176</v>
       </c>
       <c r="R4">
-        <v>7.15982521356</v>
+        <v>13.97207314584</v>
       </c>
       <c r="S4">
-        <v>0.3022991811035897</v>
+        <v>0.2523947615873934</v>
       </c>
       <c r="T4">
-        <v>0.3022991811035898</v>
+        <v>0.2523947615873934</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>10.58654</v>
       </c>
       <c r="I5">
-        <v>0.9732133606755627</v>
+        <v>0.8781048434890718</v>
       </c>
       <c r="J5">
-        <v>0.9732133606755629</v>
+        <v>0.8781048434890719</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.130141</v>
+        <v>0.235424</v>
       </c>
       <c r="N5">
-        <v>0.390423</v>
+        <v>0.706272</v>
       </c>
       <c r="O5">
-        <v>0.1793147127688988</v>
+        <v>0.1538151614230307</v>
       </c>
       <c r="P5">
-        <v>0.1793147127688988</v>
+        <v>0.1538151614230307</v>
       </c>
       <c r="Q5">
-        <v>0.4592476340466667</v>
+        <v>0.8307751976533333</v>
       </c>
       <c r="R5">
-        <v>4.13322870642</v>
+        <v>7.47697677888</v>
       </c>
       <c r="S5">
-        <v>0.1745114742323933</v>
+        <v>0.1350658382476167</v>
       </c>
       <c r="T5">
-        <v>0.1745114742323933</v>
+        <v>0.1350658382476167</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.489861</v>
+      </c>
+      <c r="H6">
+        <v>1.469583</v>
+      </c>
+      <c r="I6">
+        <v>0.1218951565109281</v>
+      </c>
+      <c r="J6">
+        <v>0.1218951565109281</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G6">
-        <v>0.09712766666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.291383</v>
-      </c>
-      <c r="I6">
-        <v>0.02678663932443721</v>
-      </c>
-      <c r="J6">
-        <v>0.02678663932443721</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M6">
-        <v>0.29479</v>
+        <v>0.5604183333333334</v>
       </c>
       <c r="N6">
-        <v>0.88437</v>
+        <v>1.681255</v>
       </c>
       <c r="O6">
-        <v>0.4061762563461451</v>
+        <v>0.3661514391314925</v>
       </c>
       <c r="P6">
-        <v>0.4061762563461451</v>
+        <v>0.3661514391314925</v>
       </c>
       <c r="Q6">
-        <v>0.02863226485666667</v>
+        <v>0.274527085185</v>
       </c>
       <c r="R6">
-        <v>0.25769038371</v>
+        <v>2.470743766665</v>
       </c>
       <c r="S6">
-        <v>0.01088009688089434</v>
+        <v>0.04463208697963484</v>
       </c>
       <c r="T6">
-        <v>0.01088009688089434</v>
+        <v>0.04463208697963484</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,55 +838,55 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.09712766666666667</v>
+        <v>0.489861</v>
       </c>
       <c r="H7">
-        <v>0.291383</v>
+        <v>1.469583</v>
       </c>
       <c r="I7">
-        <v>0.02678663932443721</v>
+        <v>0.1218951565109281</v>
       </c>
       <c r="J7">
-        <v>0.02678663932443721</v>
+        <v>0.1218951565109281</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.07539966666666666</v>
+        <v>0.29479</v>
       </c>
       <c r="N7">
-        <v>0.226199</v>
+        <v>0.88437</v>
       </c>
       <c r="O7">
-        <v>0.1038893935900604</v>
+        <v>0.1926021622090153</v>
       </c>
       <c r="P7">
-        <v>0.1038893935900604</v>
+        <v>0.1926021622090153</v>
       </c>
       <c r="Q7">
-        <v>0.007323393690777777</v>
+        <v>0.14440612419</v>
       </c>
       <c r="R7">
-        <v>0.06591054321699999</v>
+        <v>1.29965511771</v>
       </c>
       <c r="S7">
-        <v>0.002782847715731446</v>
+        <v>0.02347727070681108</v>
       </c>
       <c r="T7">
-        <v>0.002782847715731446</v>
+        <v>0.02347727070681108</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.09712766666666667</v>
+        <v>0.489861</v>
       </c>
       <c r="H8">
-        <v>0.291383</v>
+        <v>1.469583</v>
       </c>
       <c r="I8">
-        <v>0.02678663932443721</v>
+        <v>0.1218951565109281</v>
       </c>
       <c r="J8">
-        <v>0.02678663932443721</v>
+        <v>0.1218951565109281</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.225438</v>
+        <v>0.439932</v>
       </c>
       <c r="N8">
-        <v>0.6763140000000001</v>
+        <v>1.319796</v>
       </c>
       <c r="O8">
-        <v>0.3106196372948956</v>
+        <v>0.2874312372364616</v>
       </c>
       <c r="P8">
-        <v>0.3106196372948956</v>
+        <v>0.2874312372364616</v>
       </c>
       <c r="Q8">
-        <v>0.021896266918</v>
+        <v>0.215505529452</v>
       </c>
       <c r="R8">
-        <v>0.197066402262</v>
+        <v>1.939549765068</v>
       </c>
       <c r="S8">
-        <v>0.008320456191305874</v>
+        <v>0.03503647564906819</v>
       </c>
       <c r="T8">
-        <v>0.008320456191305874</v>
+        <v>0.03503647564906819</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.09712766666666667</v>
+        <v>0.489861</v>
       </c>
       <c r="H9">
-        <v>0.291383</v>
+        <v>1.469583</v>
       </c>
       <c r="I9">
-        <v>0.02678663932443721</v>
+        <v>0.1218951565109281</v>
       </c>
       <c r="J9">
-        <v>0.02678663932443721</v>
+        <v>0.1218951565109281</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.130141</v>
+        <v>0.235424</v>
       </c>
       <c r="N9">
-        <v>0.390423</v>
+        <v>0.706272</v>
       </c>
       <c r="O9">
-        <v>0.1793147127688988</v>
+        <v>0.1538151614230307</v>
       </c>
       <c r="P9">
-        <v>0.1793147127688988</v>
+        <v>0.1538151614230307</v>
       </c>
       <c r="Q9">
-        <v>0.01264029166766667</v>
+        <v>0.115325036064</v>
       </c>
       <c r="R9">
-        <v>0.113762625009</v>
+        <v>1.037925324576</v>
       </c>
       <c r="S9">
-        <v>0.004803238536505549</v>
+        <v>0.01874932317541399</v>
       </c>
       <c r="T9">
-        <v>0.004803238536505549</v>
+        <v>0.01874932317541399</v>
       </c>
     </row>
   </sheetData>
